--- a/arch-automate/automate-core/src/test/resources/xls/uni-life-form.xlsx
+++ b/arch-automate/automate-core/src/test/resources/xls/uni-life-form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12690"/>
+    <workbookView windowWidth="21030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="23" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <t>表名/Table</t>
   </si>
   <si>
+    <t>数据类型/Type</t>
+  </si>
+  <si>
     <t>列名/Column</t>
   </si>
   <si>
-    <t>数据类型/Type</t>
-  </si>
-  <si>
     <t>长度/Length</t>
   </si>
   <si>
@@ -46,24 +46,24 @@
     <t>备注/Comment</t>
   </si>
   <si>
-    <t>表单schema/FormSchema</t>
+    <t>table/FormSchema/表单schema</t>
+  </si>
+  <si>
+    <t>bigint</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>bigint</t>
-  </si>
-  <si>
     <t>主键ID</t>
   </si>
   <si>
+    <t>varchar</t>
+  </si>
+  <si>
     <t>schemaName</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>库名称/项目名称</t>
   </si>
   <si>
@@ -79,16 +79,16 @@
     <t>描述</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>st</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>时间戳</t>
   </si>
   <si>
-    <t>项目配置/FormSchemaConfig</t>
+    <t>table/FormSchemaConfig/项目配置</t>
   </si>
   <si>
     <t>id主键</t>
@@ -124,19 +124,19 @@
     <t>docker配置</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>deleted</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>是否逻辑删除</t>
   </si>
   <si>
     <t>dt</t>
   </si>
   <si>
-    <t>项目业务/FormBiz</t>
+    <t>table/FormBiz/项目业务</t>
   </si>
   <si>
     <t>projectId</t>
@@ -157,16 +157,16 @@
     <t>业务说明</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>sorted</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>排序</t>
   </si>
   <si>
-    <t>业务表单/FormTable</t>
+    <t>table/FormTable/业务表单</t>
   </si>
   <si>
     <t>bizId</t>
@@ -181,7 +181,7 @@
     <t>表单实力id</t>
   </si>
   <si>
-    <t>表单接口/FormInterface</t>
+    <t>table/FormInterface/表单接口</t>
   </si>
   <si>
     <t>formCategory</t>
@@ -217,7 +217,7 @@
     <t>接口描述</t>
   </si>
   <si>
-    <t>表单定义/FormDefinition</t>
+    <t>table/FormDefinition/表单定义</t>
   </si>
   <si>
     <t>32</t>
@@ -289,7 +289,7 @@
     <t>逻辑删除</t>
   </si>
   <si>
-    <t>表单实例/FormTableInstance</t>
+    <t>table/FormTableInstance/表单实例</t>
   </si>
   <si>
     <t>表单ID</t>
@@ -313,7 +313,7 @@
     <t>formTableName</t>
   </si>
   <si>
-    <t>表单字段/FormField</t>
+    <t>table/FormField/表单字段</t>
   </si>
   <si>
     <t>表单Id</t>
@@ -349,7 +349,7 @@
     <t>字段排序</t>
   </si>
   <si>
-    <t>表单字段类型/FormFieldTyp</t>
+    <t>table/FormFieldTyp/表单字段类型</t>
   </si>
   <si>
     <t>主键id</t>
@@ -367,7 +367,7 @@
     <t>类型名称</t>
   </si>
   <si>
-    <t>表单字段选项/FormFieldOption</t>
+    <t>table/FormFieldOption/表单字段选项</t>
   </si>
   <si>
     <t>字段id</t>
@@ -391,7 +391,7 @@
     <t>选项值</t>
   </si>
   <si>
-    <t>表单布局/FormLayout</t>
+    <t>table/FormLayout/表单布局</t>
   </si>
   <si>
     <t>主键</t>
@@ -424,7 +424,7 @@
     <t>布局css样式</t>
   </si>
   <si>
-    <t>表单数据/FromBytearray</t>
+    <t>table/FromBytearray/表单数据</t>
   </si>
   <si>
     <t>表单id</t>
@@ -447,10 +447,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -471,8 +471,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,44 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -540,21 +538,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +560,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -583,6 +575,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -591,16 +599,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,14 +617,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,7 +637,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +721,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,43 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,31 +781,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,79 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,8 +860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,8 +899,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,6 +915,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -939,166 +954,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1468,16 +1468,16 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="34.6583333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" style="1" hidden="1" customWidth="1"/>
@@ -1490,10 +1490,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1553,10 +1553,10 @@
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1567,11 +1567,11 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="4"/>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6"/>
@@ -1618,10 +1618,10 @@
     <row r="8" customFormat="1" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D8">
         <v>19</v>
@@ -1633,10 +1633,10 @@
     <row r="9" customFormat="1" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D9">
         <v>128</v>
@@ -1648,10 +1648,10 @@
     <row r="10" customFormat="1" spans="1:10">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D10">
         <v>128</v>
@@ -1663,10 +1663,10 @@
     <row r="11" customFormat="1" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D11">
         <v>128</v>
@@ -1678,10 +1678,10 @@
     <row r="12" customFormat="1" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D12">
         <v>128</v>
@@ -1693,10 +1693,10 @@
     <row r="13" customFormat="1" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D13">
         <v>128</v>
@@ -1720,10 +1720,10 @@
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>23</v>
@@ -1754,10 +1754,10 @@
     <row r="17" customFormat="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1774,10 +1774,10 @@
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -1794,10 +1794,10 @@
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -1814,10 +1814,10 @@
     <row r="20" customFormat="1" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D20">
         <v>128</v>
@@ -1871,10 +1871,10 @@
     <row r="23" customFormat="1" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1910,10 +1910,10 @@
     <row r="25" customFormat="1" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D25">
         <v>19</v>
@@ -1930,10 +1930,10 @@
     <row r="26" customFormat="1" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D26">
         <v>19</v>
@@ -1950,10 +1950,10 @@
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D27">
         <v>19</v>
@@ -1987,10 +1987,10 @@
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2026,10 +2026,10 @@
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D31">
         <v>32</v>
@@ -2046,10 +2046,10 @@
     <row r="32" customFormat="1" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -2066,10 +2066,10 @@
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D33">
         <v>256</v>
@@ -2086,10 +2086,10 @@
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D34">
         <v>128</v>
@@ -2106,10 +2106,10 @@
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D35">
         <v>255</v>
@@ -2126,10 +2126,10 @@
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D36">
         <v>32</v>
@@ -2163,10 +2163,10 @@
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2202,10 +2202,10 @@
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>71</v>
@@ -2222,10 +2222,10 @@
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>68</v>
@@ -2242,10 +2242,10 @@
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>68</v>
@@ -2262,10 +2262,10 @@
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>68</v>
@@ -2282,10 +2282,10 @@
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
@@ -2302,10 +2302,10 @@
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>71</v>
@@ -2322,10 +2322,10 @@
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>84</v>
@@ -2342,10 +2342,10 @@
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>86</v>
@@ -2362,10 +2362,10 @@
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -2398,10 +2398,10 @@
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
@@ -2438,10 +2438,10 @@
     <row r="52" customFormat="1" spans="1:10">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>71</v>
@@ -2458,10 +2458,10 @@
     <row r="53" customFormat="1" spans="1:10">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>68</v>
@@ -2478,10 +2478,10 @@
     <row r="54" customFormat="1" spans="1:10">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>68</v>
@@ -2498,10 +2498,10 @@
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>71</v>
@@ -2518,10 +2518,10 @@
     <row r="56" customFormat="1" spans="1:10">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>68</v>
@@ -2538,10 +2538,10 @@
     <row r="57" customFormat="1" spans="1:10">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>68</v>
@@ -2558,10 +2558,10 @@
     <row r="58" customFormat="1" spans="1:10">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="1"/>
@@ -2576,10 +2576,10 @@
     <row r="59" customFormat="1" spans="1:10">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="1"/>
@@ -2612,10 +2612,10 @@
     <row r="61" customFormat="1" spans="1:10">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="1"/>
@@ -2652,10 +2652,10 @@
     <row r="63" customFormat="1" spans="1:10">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>71</v>
@@ -2672,10 +2672,10 @@
     <row r="64" customFormat="1" spans="1:10">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>68</v>
@@ -2692,10 +2692,10 @@
     <row r="65" customFormat="1" spans="1:10">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>68</v>
@@ -2712,10 +2712,10 @@
     <row r="66" customFormat="1" spans="1:10">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>68</v>
@@ -2732,10 +2732,10 @@
     <row r="67" customFormat="1" spans="1:10">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>68</v>
@@ -2772,10 +2772,10 @@
     <row r="69" customFormat="1" spans="1:10">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="1"/>
@@ -2812,10 +2812,10 @@
     <row r="71" customFormat="1" spans="1:10">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D71" s="9">
         <v>32</v>
@@ -2832,10 +2832,10 @@
     <row r="72" customFormat="1" spans="1:10">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D72" s="9">
         <v>32</v>
@@ -2852,10 +2852,10 @@
     <row r="73" customFormat="1" spans="1:10">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D73" s="9">
         <v>2</v>
@@ -2908,10 +2908,10 @@
     <row r="76" customFormat="1" spans="1:10">
       <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="5"/>
@@ -2948,10 +2948,10 @@
     <row r="78" customFormat="1" spans="1:10">
       <c r="A78" s="10"/>
       <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D78" s="9">
         <v>19</v>
@@ -2968,10 +2968,10 @@
     <row r="79" customFormat="1" spans="1:10">
       <c r="A79" s="10"/>
       <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>71</v>
@@ -2988,10 +2988,10 @@
     <row r="80" customFormat="1" spans="1:10">
       <c r="A80" s="10"/>
       <c r="B80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>68</v>
@@ -3008,10 +3008,10 @@
     <row r="81" customFormat="1" spans="1:10">
       <c r="A81" s="10"/>
       <c r="B81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>68</v>
@@ -3046,10 +3046,10 @@
     <row r="83" customFormat="1" spans="1:10">
       <c r="A83" s="10"/>
       <c r="B83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="1"/>
@@ -3086,10 +3086,10 @@
     <row r="85" customFormat="1" spans="1:10">
       <c r="A85" s="10"/>
       <c r="B85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>68</v>
@@ -3106,10 +3106,10 @@
     <row r="86" customFormat="1" spans="1:10">
       <c r="A86" s="10"/>
       <c r="B86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>68</v>
@@ -3126,10 +3126,10 @@
     <row r="87" customFormat="1" spans="1:10">
       <c r="A87" s="10"/>
       <c r="B87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>132</v>
@@ -3146,10 +3146,10 @@
     <row r="88" customFormat="1" spans="1:10">
       <c r="A88" s="10"/>
       <c r="B88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D88" s="11">
         <v>32</v>
@@ -3166,10 +3166,10 @@
     <row r="89" customFormat="1" spans="1:10">
       <c r="A89" s="10"/>
       <c r="B89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D89" s="11">
         <v>19</v>
@@ -3186,10 +3186,10 @@
     <row r="90" customFormat="1" spans="1:10">
       <c r="A90" s="10"/>
       <c r="B90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="1"/>
@@ -3222,10 +3222,10 @@
     <row r="92" customFormat="1" spans="1:10">
       <c r="A92" s="10"/>
       <c r="B92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="1"/>
@@ -3257,10 +3257,10 @@
     <row r="94" customFormat="1" spans="1:10">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D94">
         <v>19</v>
@@ -3272,10 +3272,10 @@
     <row r="95" customFormat="1" spans="1:10">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D95">
         <v>19</v>
@@ -3287,10 +3287,10 @@
     <row r="96" customFormat="1" spans="1:10">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D96" s="11">
         <v>32</v>
@@ -3307,10 +3307,10 @@
     <row r="97" customFormat="1" spans="1:10">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D97" s="11">
         <v>256</v>
@@ -3345,10 +3345,10 @@
     <row r="99" customFormat="1" spans="1:10">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3361,8 +3361,8 @@
       </c>
     </row>
     <row r="100" customFormat="1" spans="2:9">
-      <c r="B100" s="12"/>
-      <c r="C100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3371,8 +3371,8 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" customFormat="1" spans="2:9">
-      <c r="B101" s="12"/>
-      <c r="C101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3381,8 +3381,8 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="1" spans="2:9">
-      <c r="B102" s="12"/>
-      <c r="C102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3391,8 +3391,8 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="1" spans="2:9">
-      <c r="B103" s="12"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3401,8 +3401,8 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" customFormat="1" spans="2:9">
-      <c r="B104" s="12"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3411,8 +3411,8 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" customFormat="1" spans="2:9">
-      <c r="B105" s="12"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3421,8 +3421,8 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="1" spans="2:9">
-      <c r="B106" s="12"/>
-      <c r="C106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3431,8 +3431,8 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" customFormat="1" spans="2:9">
-      <c r="B107" s="12"/>
-      <c r="C107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3441,8 +3441,8 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" customFormat="1" spans="2:9">
-      <c r="B108" s="12"/>
-      <c r="C108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3451,8 +3451,8 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" customFormat="1" spans="2:9">
-      <c r="B109" s="12"/>
-      <c r="C109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3461,8 +3461,8 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="1" spans="2:9">
-      <c r="B110" s="12"/>
-      <c r="C110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3471,8 +3471,8 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="1" spans="2:9">
-      <c r="B111" s="12"/>
-      <c r="C111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3481,8 +3481,8 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="1" spans="2:9">
-      <c r="B112" s="12"/>
-      <c r="C112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -3491,8 +3491,8 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="1" spans="2:9">
-      <c r="B113" s="12"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3515,16 +3515,6 @@
     <mergeCell ref="A84:A92"/>
     <mergeCell ref="A93:A99"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
@@ -3540,6 +3530,16 @@
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1 C1">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E1 B1">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
